--- a/static/upload/en.xlsx
+++ b/static/upload/en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20835" windowHeight="8370"/>
+    <workbookView windowHeight="8370" windowWidth="20835"/>
   </bookViews>
   <sheets>
     <sheet name="Localizable.strings" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -638,7 +638,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -653,7 +653,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -675,7 +675,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -706,7 +706,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -728,7 +728,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -736,7 +736,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -744,7 +744,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -759,7 +759,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -767,7 +767,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <i>false</i>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
@@ -777,10 +777,16 @@
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1077,155 +1083,155 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1278,7 +1284,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="00000000"/>
@@ -1550,11 +1556,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr/>
   </sheetPr>
   <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1669,7 +1675,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1677,7 +1683,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1685,7 +1691,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1693,7 +1699,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1701,7 +1707,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1709,7 +1715,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1717,7 +1723,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1725,7 +1731,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1733,7 +1739,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1741,7 +1747,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1749,7 +1755,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1757,7 +1763,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1773,7 +1779,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1781,7 +1787,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1829,7 +1835,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1845,7 +1851,7 @@
         <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1853,7 +1859,7 @@
         <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1861,7 +1867,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1901,7 +1907,7 @@
         <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1909,7 +1915,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1917,7 +1923,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1933,7 +1939,7 @@
         <v>67</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1941,7 +1947,7 @@
         <v>69</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1949,7 +1955,7 @@
         <v>71</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1957,7 +1963,7 @@
         <v>73</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1965,7 +1971,7 @@
         <v>75</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1973,7 +1979,7 @@
         <v>77</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1981,7 +1987,7 @@
         <v>79</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1989,7 +1995,7 @@
         <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2005,7 +2011,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2021,7 +2027,7 @@
         <v>87</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2037,7 +2043,7 @@
         <v>90</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2053,7 +2059,7 @@
         <v>93</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2061,7 +2067,7 @@
         <v>95</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2069,7 +2075,7 @@
         <v>97</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2077,7 +2083,7 @@
         <v>99</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2085,7 +2091,7 @@
         <v>101</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2093,7 +2099,7 @@
         <v>103</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2101,7 +2107,7 @@
         <v>105</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2109,7 +2115,7 @@
         <v>107</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2117,7 +2123,7 @@
         <v>109</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2133,7 +2139,7 @@
         <v>112</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2141,7 +2147,7 @@
         <v>114</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2149,7 +2155,7 @@
         <v>116</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2157,7 +2163,7 @@
         <v>118</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2165,7 +2171,7 @@
         <v>120</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2173,7 +2179,7 @@
         <v>122</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2181,7 +2187,7 @@
         <v>124</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2189,7 +2195,7 @@
         <v>126</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2197,7 +2203,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2205,7 +2211,7 @@
         <v>130</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2213,7 +2219,7 @@
         <v>132</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2221,7 +2227,7 @@
         <v>134</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2229,7 +2235,7 @@
         <v>136</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2237,7 +2243,7 @@
         <v>138</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2245,7 +2251,7 @@
         <v>139</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2253,7 +2259,7 @@
         <v>141</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2261,7 +2267,7 @@
         <v>143</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2269,7 +2275,7 @@
         <v>145</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2277,7 +2283,7 @@
         <v>147</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2285,7 +2291,7 @@
         <v>149</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2293,7 +2299,7 @@
         <v>151</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2301,7 +2307,7 @@
         <v>153</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2309,7 +2315,7 @@
         <v>155</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2317,7 +2323,7 @@
         <v>157</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2325,7 +2331,7 @@
         <v>159</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2333,7 +2339,7 @@
         <v>161</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2341,7 +2347,7 @@
         <v>163</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2349,7 +2355,7 @@
         <v>165</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2357,7 +2363,7 @@
         <v>167</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2365,7 +2371,7 @@
         <v>169</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2373,7 +2379,7 @@
         <v>171</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2381,7 +2387,7 @@
         <v>173</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2389,7 +2395,7 @@
         <v>175</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2397,7 +2403,7 @@
         <v>177</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2405,7 +2411,7 @@
         <v>179</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2413,7 +2419,7 @@
         <v>181</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2421,7 +2427,7 @@
         <v>183</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2461,7 +2467,7 @@
         <v>189</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2469,7 +2475,7 @@
         <v>191</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2477,7 +2483,7 @@
         <v>193</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2485,14 +2491,14 @@
         <v>195</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0">
+  <printOptions horizontalCentered="true"/>
+  <pageMargins bottom="0.37" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.61"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="true" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
   </headerFooter>

--- a/static/upload/en.xlsx
+++ b/static/upload/en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="8370" windowWidth="20835"/>
+    <workbookView windowWidth="20835" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Localizable.strings" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -638,7 +638,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b>false</b>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -653,7 +653,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b>false</b>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -675,7 +675,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b>false</b>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -706,7 +706,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b>false</b>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -728,7 +728,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b>false</b>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -736,7 +736,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b>false</b>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -744,7 +744,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b>false</b>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -759,7 +759,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b>false</b>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -767,7 +767,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i>false</i>
+      <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
@@ -777,16 +777,10 @@
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1083,155 +1077,155 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1284,7 +1278,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="00000000"/>
@@ -1556,11 +1550,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1675,7 +1669,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1683,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1691,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1699,7 +1693,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1707,7 +1701,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1715,7 +1709,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1723,7 +1717,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1731,7 +1725,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1739,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1747,7 +1741,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1755,7 +1749,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1763,7 +1757,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1779,7 +1773,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1787,7 +1781,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1835,7 +1829,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1851,7 +1845,7 @@
         <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1859,7 +1853,7 @@
         <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1867,7 +1861,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1907,7 +1901,7 @@
         <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1915,7 +1909,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1923,7 +1917,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1939,7 +1933,7 @@
         <v>67</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1947,7 +1941,7 @@
         <v>69</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1955,7 +1949,7 @@
         <v>71</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1963,7 +1957,7 @@
         <v>73</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1971,7 +1965,7 @@
         <v>75</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1979,7 +1973,7 @@
         <v>77</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1987,7 +1981,7 @@
         <v>79</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1995,7 +1989,7 @@
         <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2011,7 +2005,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2027,7 +2021,7 @@
         <v>87</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2043,7 +2037,7 @@
         <v>90</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2059,7 +2053,7 @@
         <v>93</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2067,7 +2061,7 @@
         <v>95</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2075,7 +2069,7 @@
         <v>97</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2083,7 +2077,7 @@
         <v>99</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2091,7 +2085,7 @@
         <v>101</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2099,7 +2093,7 @@
         <v>103</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2107,7 +2101,7 @@
         <v>105</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2115,7 +2109,7 @@
         <v>107</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2123,7 +2117,7 @@
         <v>109</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2139,7 +2133,7 @@
         <v>112</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2147,7 +2141,7 @@
         <v>114</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2155,7 +2149,7 @@
         <v>116</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2163,7 +2157,7 @@
         <v>118</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2171,7 +2165,7 @@
         <v>120</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2179,7 +2173,7 @@
         <v>122</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2187,7 +2181,7 @@
         <v>124</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2195,7 +2189,7 @@
         <v>126</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2203,7 +2197,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2211,7 +2205,7 @@
         <v>130</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2219,7 +2213,7 @@
         <v>132</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2227,7 +2221,7 @@
         <v>134</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2235,7 +2229,7 @@
         <v>136</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2243,7 +2237,7 @@
         <v>138</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2251,7 +2245,7 @@
         <v>139</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2259,7 +2253,7 @@
         <v>141</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2267,7 +2261,7 @@
         <v>143</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2275,7 +2269,7 @@
         <v>145</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2283,7 +2277,7 @@
         <v>147</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2291,7 +2285,7 @@
         <v>149</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2299,7 +2293,7 @@
         <v>151</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2307,7 +2301,7 @@
         <v>153</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2315,7 +2309,7 @@
         <v>155</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2323,7 +2317,7 @@
         <v>157</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2331,7 +2325,7 @@
         <v>159</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2339,7 +2333,7 @@
         <v>161</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2347,7 +2341,7 @@
         <v>163</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2355,7 +2349,7 @@
         <v>165</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2363,7 +2357,7 @@
         <v>167</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2371,7 +2365,7 @@
         <v>169</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2379,7 +2373,7 @@
         <v>171</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2387,7 +2381,7 @@
         <v>173</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2395,7 +2389,7 @@
         <v>175</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2403,7 +2397,7 @@
         <v>177</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2411,7 +2405,7 @@
         <v>179</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2419,7 +2413,7 @@
         <v>181</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2427,7 +2421,7 @@
         <v>183</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2467,7 +2461,7 @@
         <v>189</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2475,7 +2469,7 @@
         <v>191</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2483,7 +2477,7 @@
         <v>193</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2491,14 +2485,14 @@
         <v>195</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="true"/>
-  <pageMargins bottom="0.37" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.61"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="true" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
   </headerFooter>
